--- a/data/Datasheet_shaved.xlsx
+++ b/data/Datasheet_shaved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Midori\Documents\github\humans-andes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F23360-E18B-4BC4-B4B9-C15FB36CF143}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299C61C9-C407-4804-A974-60A8FE5B6DF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1074,11 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BB498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AY436" sqref="AY436"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="3" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="4" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="5" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="6" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="7" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="8" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="9" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="10" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="11" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="12" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="13" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="14" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="15" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="16" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="17" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="18" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="19" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -4199,7 +4198,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="20" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -4363,7 +4362,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="21" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="22" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="23" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -4855,7 +4854,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="24" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -5019,7 +5018,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="25" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="26" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="27" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -5511,7 +5510,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="28" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="29" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="30" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="31" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="32" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="33" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="34" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="35" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="36" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="37" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -7151,7 +7150,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="38" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -7315,7 +7314,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="39" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="40" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="41" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -7807,7 +7806,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -7971,7 +7970,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -8135,7 +8134,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="44" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -8299,7 +8298,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="45" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -8463,7 +8462,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -8627,7 +8626,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="48" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -8955,7 +8954,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="49" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -9119,7 +9118,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="50" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -9283,7 +9282,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="51" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -9447,7 +9446,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="52" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -9611,7 +9610,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="53" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -9775,7 +9774,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="54" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -9939,7 +9938,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="55" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -10103,7 +10102,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="56" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="57" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="58" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -10595,7 +10594,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="59" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -10759,7 +10758,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="60" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -10923,7 +10922,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="61" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -11087,7 +11086,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="62" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -11251,7 +11250,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="63" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -11415,7 +11414,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="64" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -11579,7 +11578,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="65" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -11743,7 +11742,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="66" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -11907,7 +11906,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="67" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -12071,7 +12070,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="68" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -12235,7 +12234,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="69" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -12399,7 +12398,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="70" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -12563,7 +12562,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="71" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -12727,7 +12726,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="72" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -12891,7 +12890,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="73" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>93</v>
       </c>
@@ -13055,7 +13054,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="74" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -13219,7 +13218,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="75" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -13383,7 +13382,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="76" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -13547,7 +13546,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="77" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -13711,7 +13710,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="78" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>100</v>
       </c>
@@ -13875,7 +13874,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="79" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -14039,7 +14038,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="80" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>100</v>
       </c>
@@ -14203,7 +14202,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="81" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -14367,7 +14366,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="82" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -14531,7 +14530,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="83" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -14695,7 +14694,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="84" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -14859,7 +14858,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="85" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -15023,7 +15022,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="86" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -15187,7 +15186,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="87" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -15351,7 +15350,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="88" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -15515,7 +15514,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="89" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -15679,7 +15678,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="90" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -15843,7 +15842,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="91" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -16007,7 +16006,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="92" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -16171,7 +16170,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="93" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -16335,7 +16334,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="94" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="95" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -16663,7 +16662,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="96" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -16827,7 +16826,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="97" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -16991,7 +16990,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="98" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -17155,7 +17154,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="99" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -17319,7 +17318,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="100" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -17483,7 +17482,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="101" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -17647,7 +17646,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="102" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -17811,7 +17810,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="103" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -17975,7 +17974,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="104" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -18139,7 +18138,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="105" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -18303,7 +18302,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="106" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -18467,7 +18466,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="107" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -18631,7 +18630,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="108" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -18795,7 +18794,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="109" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -18959,7 +18958,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="110" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -19123,7 +19122,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="111" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -19287,7 +19286,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="112" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>104</v>
       </c>
@@ -19451,7 +19450,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="113" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>104</v>
       </c>
@@ -19615,7 +19614,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="114" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -19779,7 +19778,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="115" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>104</v>
       </c>
@@ -19943,7 +19942,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="116" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>104</v>
       </c>
@@ -20107,7 +20106,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="117" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>104</v>
       </c>
@@ -20271,7 +20270,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="118" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>104</v>
       </c>
@@ -20435,7 +20434,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="119" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>104</v>
       </c>
@@ -20599,7 +20598,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="120" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -20763,7 +20762,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="121" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>104</v>
       </c>
@@ -20927,7 +20926,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="122" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>104</v>
       </c>
@@ -21091,7 +21090,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="123" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>104</v>
       </c>
@@ -21255,7 +21254,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="124" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>104</v>
       </c>
@@ -21419,7 +21418,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="125" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>104</v>
       </c>
@@ -21583,7 +21582,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="126" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>108</v>
       </c>
@@ -21747,7 +21746,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="127" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>108</v>
       </c>
@@ -21911,7 +21910,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="128" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>108</v>
       </c>
@@ -22075,7 +22074,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="129" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>108</v>
       </c>
@@ -22239,7 +22238,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="130" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>108</v>
       </c>
@@ -22403,7 +22402,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="131" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>108</v>
       </c>
@@ -22567,7 +22566,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="132" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>108</v>
       </c>
@@ -22731,7 +22730,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="133" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>108</v>
       </c>
@@ -22895,7 +22894,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="134" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>108</v>
       </c>
@@ -23059,7 +23058,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="135" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>108</v>
       </c>
@@ -23223,7 +23222,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="136" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>108</v>
       </c>
@@ -23387,7 +23386,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="137" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -23551,7 +23550,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="138" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>108</v>
       </c>
@@ -23715,7 +23714,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="139" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>108</v>
       </c>
@@ -23879,7 +23878,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="140" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>108</v>
       </c>
@@ -24043,7 +24042,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="141" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>108</v>
       </c>
@@ -24207,7 +24206,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="142" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>108</v>
       </c>
@@ -24371,7 +24370,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="143" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>108</v>
       </c>
@@ -24535,7 +24534,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="144" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>108</v>
       </c>
@@ -24699,7 +24698,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="145" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>108</v>
       </c>
@@ -24863,7 +24862,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="146" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>108</v>
       </c>
@@ -25027,7 +25026,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="147" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>108</v>
       </c>
@@ -25191,7 +25190,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="148" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>108</v>
       </c>
@@ -25355,7 +25354,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="149" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>108</v>
       </c>
@@ -25519,7 +25518,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="150" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>113</v>
       </c>
@@ -25683,7 +25682,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="151" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>113</v>
       </c>
@@ -25847,7 +25846,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="152" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>113</v>
       </c>
@@ -26011,7 +26010,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="153" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>113</v>
       </c>
@@ -26175,7 +26174,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="154" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>113</v>
       </c>
@@ -26339,7 +26338,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="155" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>113</v>
       </c>
@@ -26503,7 +26502,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="156" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>113</v>
       </c>
@@ -26667,7 +26666,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="157" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>113</v>
       </c>
@@ -26831,7 +26830,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="158" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>113</v>
       </c>
@@ -26995,7 +26994,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="159" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>113</v>
       </c>
@@ -27159,7 +27158,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="160" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>113</v>
       </c>
@@ -27323,7 +27322,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="161" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>113</v>
       </c>
@@ -27487,7 +27486,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="162" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>113</v>
       </c>
@@ -27651,7 +27650,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="163" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>113</v>
       </c>
@@ -27815,7 +27814,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="164" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>113</v>
       </c>
@@ -27979,7 +27978,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="165" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>113</v>
       </c>
@@ -28143,7 +28142,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="166" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>113</v>
       </c>
@@ -28307,7 +28306,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="167" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>113</v>
       </c>
@@ -28471,7 +28470,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="168" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>113</v>
       </c>
@@ -28635,7 +28634,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="169" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>113</v>
       </c>
@@ -28799,7 +28798,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="170" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>113</v>
       </c>
@@ -28963,7 +28962,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="171" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -29127,7 +29126,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="172" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>113</v>
       </c>
@@ -29291,7 +29290,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="173" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>113</v>
       </c>
@@ -29455,7 +29454,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="174" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>117</v>
       </c>
@@ -29619,7 +29618,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="175" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>117</v>
       </c>
@@ -29783,7 +29782,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="176" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>117</v>
       </c>
@@ -29947,7 +29946,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="177" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>120</v>
       </c>
@@ -30111,7 +30110,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="178" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>120</v>
       </c>
@@ -30275,7 +30274,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="179" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>120</v>
       </c>
@@ -30439,7 +30438,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="180" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>120</v>
       </c>
@@ -30603,7 +30602,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="181" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>120</v>
       </c>
@@ -30767,7 +30766,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="182" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>120</v>
       </c>
@@ -30931,7 +30930,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="183" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>120</v>
       </c>
@@ -31095,7 +31094,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="184" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>120</v>
       </c>
@@ -31259,7 +31258,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="185" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>120</v>
       </c>
@@ -31423,7 +31422,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="186" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>120</v>
       </c>
@@ -31587,7 +31586,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="187" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>120</v>
       </c>
@@ -31751,7 +31750,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="188" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>120</v>
       </c>
@@ -31915,7 +31914,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="189" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>120</v>
       </c>
@@ -32079,7 +32078,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="190" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>120</v>
       </c>
@@ -32243,7 +32242,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="191" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>120</v>
       </c>
@@ -32407,7 +32406,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="192" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>120</v>
       </c>
@@ -32571,7 +32570,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="193" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>120</v>
       </c>
@@ -32735,7 +32734,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="194" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>120</v>
       </c>
@@ -32899,7 +32898,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="195" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>120</v>
       </c>
@@ -33063,7 +33062,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="196" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>120</v>
       </c>
@@ -33227,7 +33226,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="197" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>120</v>
       </c>
@@ -33391,7 +33390,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="198" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>120</v>
       </c>
@@ -33555,7 +33554,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="199" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>120</v>
       </c>
@@ -33719,7 +33718,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="200" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>120</v>
       </c>
@@ -33883,7 +33882,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="201" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>124</v>
       </c>
@@ -34047,7 +34046,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="202" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>124</v>
       </c>
@@ -34211,7 +34210,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="203" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>124</v>
       </c>
@@ -34375,7 +34374,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="204" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>124</v>
       </c>
@@ -34539,7 +34538,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="205" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>124</v>
       </c>
@@ -34703,7 +34702,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="206" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>124</v>
       </c>
@@ -34867,7 +34866,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="207" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>124</v>
       </c>
@@ -35031,7 +35030,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="208" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>124</v>
       </c>
@@ -35195,7 +35194,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="209" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>124</v>
       </c>
@@ -35359,7 +35358,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="210" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>124</v>
       </c>
@@ -35523,7 +35522,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="211" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>124</v>
       </c>
@@ -35687,7 +35686,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="212" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>124</v>
       </c>
@@ -35851,7 +35850,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="213" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>124</v>
       </c>
@@ -36015,7 +36014,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="214" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>124</v>
       </c>
@@ -36179,7 +36178,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="215" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>127</v>
       </c>
@@ -36343,7 +36342,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="216" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>127</v>
       </c>
@@ -36507,7 +36506,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="217" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>131</v>
       </c>
@@ -36671,7 +36670,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="218" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>131</v>
       </c>
@@ -36835,7 +36834,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="219" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>131</v>
       </c>
@@ -36999,7 +36998,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="220" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>131</v>
       </c>
@@ -37163,7 +37162,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="221" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>131</v>
       </c>
@@ -37327,7 +37326,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="222" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>131</v>
       </c>
@@ -37491,7 +37490,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="223" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>131</v>
       </c>
@@ -37655,7 +37654,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="224" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>131</v>
       </c>
@@ -37819,7 +37818,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="225" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>131</v>
       </c>
@@ -37983,7 +37982,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="226" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>131</v>
       </c>
@@ -38147,7 +38146,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="227" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>131</v>
       </c>
@@ -38311,7 +38310,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="228" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>131</v>
       </c>
@@ -38475,7 +38474,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="229" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>131</v>
       </c>
@@ -38639,7 +38638,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="230" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>131</v>
       </c>
@@ -38803,7 +38802,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="231" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>131</v>
       </c>
@@ -38967,7 +38966,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="232" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>131</v>
       </c>
@@ -39131,7 +39130,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="233" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>131</v>
       </c>
@@ -39295,7 +39294,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="234" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>131</v>
       </c>
@@ -39459,7 +39458,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="235" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>131</v>
       </c>
@@ -39623,7 +39622,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="236" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>131</v>
       </c>
@@ -39787,7 +39786,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="237" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>131</v>
       </c>
@@ -39951,7 +39950,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="238" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>131</v>
       </c>
@@ -40115,7 +40114,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="239" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>131</v>
       </c>
@@ -40279,7 +40278,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="240" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>131</v>
       </c>
@@ -40443,7 +40442,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="241" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>135</v>
       </c>
@@ -40607,7 +40606,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="242" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>139</v>
       </c>
@@ -40771,7 +40770,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="243" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>139</v>
       </c>
@@ -40935,7 +40934,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="244" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>139</v>
       </c>
@@ -41099,7 +41098,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="245" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>139</v>
       </c>
@@ -41263,7 +41262,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="246" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>139</v>
       </c>
@@ -41427,7 +41426,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="247" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>139</v>
       </c>
@@ -41591,7 +41590,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="248" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>139</v>
       </c>
@@ -41755,7 +41754,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="249" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>139</v>
       </c>
@@ -41919,7 +41918,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="250" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>139</v>
       </c>
@@ -42083,7 +42082,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="251" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>139</v>
       </c>
@@ -42247,7 +42246,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="252" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>139</v>
       </c>
@@ -42411,7 +42410,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="253" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>139</v>
       </c>
@@ -42575,7 +42574,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="254" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>139</v>
       </c>
@@ -42739,7 +42738,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="255" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>139</v>
       </c>
@@ -42903,7 +42902,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="256" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>139</v>
       </c>
@@ -43067,7 +43066,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="257" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>139</v>
       </c>
@@ -43231,7 +43230,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="258" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>139</v>
       </c>
@@ -43395,7 +43394,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="259" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>139</v>
       </c>
@@ -43559,7 +43558,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="260" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>139</v>
       </c>
@@ -43723,7 +43722,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="261" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>139</v>
       </c>
@@ -43887,7 +43886,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="262" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>139</v>
       </c>
@@ -44051,7 +44050,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="263" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>139</v>
       </c>
@@ -44215,7 +44214,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="264" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>139</v>
       </c>
@@ -44379,7 +44378,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="265" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>139</v>
       </c>
@@ -44543,7 +44542,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="266" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>143</v>
       </c>
@@ -44707,7 +44706,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="267" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>143</v>
       </c>
@@ -44871,7 +44870,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="268" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>143</v>
       </c>
@@ -45035,7 +45034,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="269" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>143</v>
       </c>
@@ -45199,7 +45198,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="270" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>143</v>
       </c>
@@ -45363,7 +45362,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="271" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>143</v>
       </c>
@@ -45527,7 +45526,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="272" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>143</v>
       </c>
@@ -45691,7 +45690,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="273" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>143</v>
       </c>
@@ -45855,7 +45854,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="274" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>143</v>
       </c>
@@ -46019,7 +46018,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="275" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>143</v>
       </c>
@@ -46183,7 +46182,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="276" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>143</v>
       </c>
@@ -46347,7 +46346,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="277" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>143</v>
       </c>
@@ -46511,7 +46510,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="278" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>143</v>
       </c>
@@ -46675,7 +46674,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="279" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>143</v>
       </c>
@@ -46839,7 +46838,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="280" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>143</v>
       </c>
@@ -47003,7 +47002,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="281" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>143</v>
       </c>
@@ -47167,7 +47166,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="282" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>143</v>
       </c>
@@ -47331,7 +47330,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="283" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>143</v>
       </c>
@@ -47495,7 +47494,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="284" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>143</v>
       </c>
@@ -47659,7 +47658,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="285" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>143</v>
       </c>
@@ -47823,7 +47822,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="286" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>143</v>
       </c>
@@ -47987,7 +47986,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="287" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>143</v>
       </c>
@@ -48151,7 +48150,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="288" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>147</v>
       </c>
@@ -48315,7 +48314,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="289" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>147</v>
       </c>
@@ -48479,7 +48478,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="290" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>147</v>
       </c>
@@ -48643,7 +48642,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="291" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>147</v>
       </c>
@@ -48807,7 +48806,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="292" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>151</v>
       </c>
@@ -48971,7 +48970,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="293" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>151</v>
       </c>
@@ -49135,7 +49134,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="294" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>151</v>
       </c>
@@ -49299,7 +49298,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="295" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>151</v>
       </c>
@@ -49463,7 +49462,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="296" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>151</v>
       </c>
@@ -49627,7 +49626,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="297" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>155</v>
       </c>
@@ -49791,7 +49790,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="298" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>155</v>
       </c>
@@ -49955,7 +49954,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="299" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>155</v>
       </c>
@@ -50119,7 +50118,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="300" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>155</v>
       </c>
@@ -50283,7 +50282,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="301" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>159</v>
       </c>
@@ -50447,7 +50446,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="302" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>159</v>
       </c>
@@ -50611,7 +50610,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="303" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>159</v>
       </c>
@@ -50775,7 +50774,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="304" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>162</v>
       </c>
@@ -50939,7 +50938,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="305" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>162</v>
       </c>
@@ -51103,7 +51102,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="306" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>162</v>
       </c>
@@ -51267,7 +51266,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="307" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>162</v>
       </c>
@@ -51431,7 +51430,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="308" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>162</v>
       </c>
@@ -51595,7 +51594,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="309" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>162</v>
       </c>
@@ -51759,7 +51758,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="310" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>162</v>
       </c>
@@ -51923,7 +51922,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="311" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>162</v>
       </c>
@@ -52087,7 +52086,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="312" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>162</v>
       </c>
@@ -52251,7 +52250,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="313" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>162</v>
       </c>
@@ -52415,7 +52414,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="314" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>162</v>
       </c>
@@ -52579,7 +52578,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="315" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>162</v>
       </c>
@@ -52743,7 +52742,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="316" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>162</v>
       </c>
@@ -52907,7 +52906,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="317" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>162</v>
       </c>
@@ -53071,7 +53070,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="318" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>162</v>
       </c>
@@ -53235,7 +53234,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="319" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>162</v>
       </c>
@@ -53399,7 +53398,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="320" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>162</v>
       </c>
@@ -53563,7 +53562,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="321" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>162</v>
       </c>
@@ -53727,7 +53726,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="322" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>162</v>
       </c>
@@ -53891,7 +53890,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="323" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>162</v>
       </c>
@@ -54055,7 +54054,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="324" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>162</v>
       </c>
@@ -54219,7 +54218,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="325" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>162</v>
       </c>
@@ -54383,7 +54382,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="326" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>162</v>
       </c>
@@ -54547,7 +54546,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="327" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>162</v>
       </c>
@@ -54711,7 +54710,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="328" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>167</v>
       </c>
@@ -54875,7 +54874,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="329" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>167</v>
       </c>
@@ -55039,7 +55038,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="330" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>171</v>
       </c>
@@ -55203,7 +55202,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="331" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>171</v>
       </c>
@@ -55367,7 +55366,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="332" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>174</v>
       </c>
@@ -55531,7 +55530,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="333" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>174</v>
       </c>
@@ -55695,7 +55694,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="334" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>178</v>
       </c>
@@ -55859,7 +55858,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="335" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>178</v>
       </c>
@@ -56023,7 +56022,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="336" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>178</v>
       </c>
@@ -56187,7 +56186,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="337" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>178</v>
       </c>
@@ -56351,7 +56350,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="338" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>178</v>
       </c>
@@ -56515,7 +56514,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="339" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>178</v>
       </c>
@@ -56679,7 +56678,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="340" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>178</v>
       </c>
@@ -56843,7 +56842,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="341" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>181</v>
       </c>
@@ -57007,7 +57006,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="342" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>181</v>
       </c>
@@ -57171,7 +57170,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="343" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>181</v>
       </c>
@@ -57335,7 +57334,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="344" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>181</v>
       </c>
@@ -57499,7 +57498,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="345" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>181</v>
       </c>
@@ -57663,7 +57662,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="346" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>181</v>
       </c>
@@ -57827,7 +57826,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="347" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>181</v>
       </c>
@@ -57991,7 +57990,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="348" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>181</v>
       </c>
@@ -58155,7 +58154,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="349" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>181</v>
       </c>
@@ -58319,7 +58318,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="350" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>181</v>
       </c>
@@ -58483,7 +58482,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="351" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>181</v>
       </c>
@@ -58647,7 +58646,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="352" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>181</v>
       </c>
@@ -58811,7 +58810,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="353" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>181</v>
       </c>
@@ -58975,7 +58974,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="354" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>181</v>
       </c>
@@ -59139,7 +59138,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="355" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>181</v>
       </c>
@@ -59303,7 +59302,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="356" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>181</v>
       </c>
@@ -59467,7 +59466,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="357" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>181</v>
       </c>
@@ -59631,7 +59630,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="358" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>181</v>
       </c>
@@ -59795,7 +59794,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="359" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>181</v>
       </c>
@@ -59959,7 +59958,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="360" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>181</v>
       </c>
@@ -60123,7 +60122,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="361" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>181</v>
       </c>
@@ -60287,7 +60286,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="362" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>181</v>
       </c>
@@ -60451,7 +60450,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="363" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>181</v>
       </c>
@@ -60615,7 +60614,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="364" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>181</v>
       </c>
@@ -60779,7 +60778,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="365" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>185</v>
       </c>
@@ -60943,7 +60942,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="366" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>185</v>
       </c>
@@ -61107,7 +61106,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="367" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>189</v>
       </c>
@@ -61271,7 +61270,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="368" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>189</v>
       </c>
@@ -61435,7 +61434,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="369" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>189</v>
       </c>
@@ -61599,7 +61598,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="370" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>189</v>
       </c>
@@ -61763,7 +61762,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="371" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>189</v>
       </c>
@@ -61927,7 +61926,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="372" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>189</v>
       </c>
@@ -62091,7 +62090,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="373" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>189</v>
       </c>
@@ -62255,7 +62254,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="374" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>189</v>
       </c>
@@ -62419,7 +62418,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="375" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>189</v>
       </c>
@@ -62583,7 +62582,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="376" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>189</v>
       </c>
@@ -62747,7 +62746,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="377" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>189</v>
       </c>
@@ -62911,7 +62910,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="378" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>189</v>
       </c>
@@ -63075,7 +63074,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="379" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>189</v>
       </c>
@@ -63239,7 +63238,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="380" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>189</v>
       </c>
@@ -63403,7 +63402,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="381" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>189</v>
       </c>
@@ -63567,7 +63566,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="382" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>189</v>
       </c>
@@ -63731,7 +63730,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="383" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>189</v>
       </c>
@@ -63895,7 +63894,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="384" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>189</v>
       </c>
@@ -64059,7 +64058,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="385" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>189</v>
       </c>
@@ -64223,7 +64222,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="386" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>189</v>
       </c>
@@ -64387,7 +64386,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="387" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>189</v>
       </c>
@@ -64551,7 +64550,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="388" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>189</v>
       </c>
@@ -64715,7 +64714,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="389" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>189</v>
       </c>
@@ -64879,7 +64878,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="390" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>189</v>
       </c>
@@ -65043,7 +65042,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="391" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>193</v>
       </c>
@@ -65207,7 +65206,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="392" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>193</v>
       </c>
@@ -65371,7 +65370,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="393" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>193</v>
       </c>
@@ -65535,7 +65534,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="394" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>193</v>
       </c>
@@ -65699,7 +65698,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="395" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>193</v>
       </c>
@@ -65863,7 +65862,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="396" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>193</v>
       </c>
@@ -66027,7 +66026,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="397" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>193</v>
       </c>
@@ -66191,7 +66190,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="398" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>193</v>
       </c>
@@ -66355,7 +66354,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="399" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>193</v>
       </c>
@@ -66519,7 +66518,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="400" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>193</v>
       </c>
@@ -66683,7 +66682,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="401" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>193</v>
       </c>
@@ -66847,7 +66846,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="402" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>193</v>
       </c>
@@ -67011,7 +67010,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="403" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>193</v>
       </c>
@@ -67175,7 +67174,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="404" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>193</v>
       </c>
@@ -67339,7 +67338,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="405" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>193</v>
       </c>
@@ -67503,7 +67502,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="406" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>193</v>
       </c>
@@ -67667,7 +67666,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="407" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>193</v>
       </c>
@@ -67831,7 +67830,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="408" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>193</v>
       </c>
@@ -67995,7 +67994,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="409" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>193</v>
       </c>
@@ -68159,7 +68158,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="410" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>193</v>
       </c>
@@ -68323,7 +68322,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="411" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>193</v>
       </c>
@@ -68487,7 +68486,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="412" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>193</v>
       </c>
@@ -68651,7 +68650,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="413" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>103</v>
       </c>
@@ -68815,7 +68814,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="414" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>103</v>
       </c>
@@ -68979,7 +68978,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="415" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>103</v>
       </c>
@@ -69143,7 +69142,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="416" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>103</v>
       </c>
@@ -69307,7 +69306,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="417" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>103</v>
       </c>
@@ -69471,7 +69470,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="418" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>103</v>
       </c>
@@ -69635,7 +69634,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="419" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>103</v>
       </c>
@@ -69799,7 +69798,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="420" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>103</v>
       </c>
@@ -69963,7 +69962,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="421" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>103</v>
       </c>
@@ -70127,7 +70126,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="422" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>103</v>
       </c>
@@ -70291,7 +70290,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="423" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>103</v>
       </c>
@@ -70455,7 +70454,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="424" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>103</v>
       </c>
@@ -70619,7 +70618,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="425" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>103</v>
       </c>
@@ -70783,7 +70782,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="426" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>103</v>
       </c>
@@ -70947,7 +70946,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="427" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>103</v>
       </c>
@@ -71111,7 +71110,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="428" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>103</v>
       </c>
@@ -71275,7 +71274,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="429" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>103</v>
       </c>
@@ -71439,7 +71438,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="430" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>103</v>
       </c>
@@ -71603,7 +71602,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="431" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>103</v>
       </c>
@@ -71767,7 +71766,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="432" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>103</v>
       </c>
@@ -71931,7 +71930,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="433" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>103</v>
       </c>
@@ -72095,7 +72094,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="434" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>103</v>
       </c>
@@ -72259,7 +72258,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="435" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>103</v>
       </c>
@@ -72587,7 +72586,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="437" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>208</v>
       </c>
@@ -72751,7 +72750,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="438" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>208</v>
       </c>
@@ -72915,7 +72914,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="439" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>208</v>
       </c>
@@ -73079,7 +73078,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="440" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>208</v>
       </c>
@@ -73243,7 +73242,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="441" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>208</v>
       </c>
@@ -73407,7 +73406,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="442" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>208</v>
       </c>
@@ -73571,7 +73570,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="443" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>208</v>
       </c>
@@ -73735,7 +73734,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="444" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>208</v>
       </c>
@@ -73899,7 +73898,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="445" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>208</v>
       </c>
@@ -74063,7 +74062,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="446" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>208</v>
       </c>
@@ -74227,7 +74226,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="447" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>208</v>
       </c>
@@ -74391,7 +74390,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="448" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>208</v>
       </c>
@@ -74555,7 +74554,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="449" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>208</v>
       </c>
@@ -74719,7 +74718,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="450" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>208</v>
       </c>
@@ -74883,7 +74882,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="451" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>208</v>
       </c>
@@ -75047,7 +75046,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="452" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>212</v>
       </c>
@@ -75211,7 +75210,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="453" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>212</v>
       </c>
@@ -75375,7 +75374,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="454" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>212</v>
       </c>
@@ -75539,7 +75538,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="455" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>212</v>
       </c>
@@ -75703,7 +75702,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="456" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>212</v>
       </c>
@@ -75867,7 +75866,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="457" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>212</v>
       </c>
@@ -76031,7 +76030,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="458" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>212</v>
       </c>
@@ -76195,7 +76194,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="459" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>212</v>
       </c>
@@ -76359,7 +76358,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="460" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>212</v>
       </c>
@@ -76523,7 +76522,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="461" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>212</v>
       </c>
@@ -76687,7 +76686,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="462" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>212</v>
       </c>
@@ -76851,7 +76850,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="463" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>212</v>
       </c>
@@ -77015,7 +77014,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="464" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>215</v>
       </c>
@@ -77179,7 +77178,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="465" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>215</v>
       </c>
@@ -77343,7 +77342,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="466" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>215</v>
       </c>
@@ -77507,7 +77506,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="467" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>215</v>
       </c>
@@ -77671,7 +77670,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="468" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>215</v>
       </c>
@@ -77835,7 +77834,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="469" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>215</v>
       </c>
@@ -77999,7 +77998,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="470" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>215</v>
       </c>
@@ -78163,7 +78162,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="471" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>215</v>
       </c>
@@ -78327,7 +78326,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="472" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>215</v>
       </c>
@@ -78491,7 +78490,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="473" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>215</v>
       </c>
@@ -78655,7 +78654,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="474" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>215</v>
       </c>
@@ -78819,7 +78818,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="475" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>218</v>
       </c>
@@ -78983,7 +78982,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="476" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>218</v>
       </c>
@@ -79147,7 +79146,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="477" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>218</v>
       </c>
@@ -79311,7 +79310,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="478" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>218</v>
       </c>
@@ -79475,7 +79474,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="479" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>218</v>
       </c>
@@ -79639,7 +79638,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="480" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>218</v>
       </c>
@@ -79803,7 +79802,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="481" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>218</v>
       </c>
@@ -79967,7 +79966,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="482" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>218</v>
       </c>
@@ -80131,7 +80130,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="483" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>218</v>
       </c>
@@ -80295,7 +80294,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="484" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>218</v>
       </c>
@@ -80459,7 +80458,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="485" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>218</v>
       </c>
@@ -80623,7 +80622,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="486" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>218</v>
       </c>
@@ -80787,7 +80786,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="487" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>218</v>
       </c>
@@ -80951,7 +80950,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="488" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>218</v>
       </c>
@@ -81115,7 +81114,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="489" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>218</v>
       </c>
@@ -81279,7 +81278,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="490" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>218</v>
       </c>
@@ -81443,7 +81442,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="491" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>218</v>
       </c>
@@ -81607,7 +81606,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="492" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>218</v>
       </c>
@@ -81771,7 +81770,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="493" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>218</v>
       </c>
@@ -81935,7 +81934,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="494" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>218</v>
       </c>
@@ -82099,7 +82098,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="495" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>218</v>
       </c>
@@ -82263,7 +82262,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="496" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>218</v>
       </c>
@@ -82427,7 +82426,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="497" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>218</v>
       </c>
@@ -82591,7 +82590,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="498" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>218</v>
       </c>
@@ -82756,13 +82755,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C498" xr:uid="{804FA1B9-80B7-4D74-A795-4824BB475566}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Huila"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C498" xr:uid="{804FA1B9-80B7-4D74-A795-4824BB475566}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>